--- a/Analisis/Portafolio.xlsx
+++ b/Analisis/Portafolio.xlsx
@@ -134,9 +134,6 @@
     <t>Casos de Pruebas Funcional</t>
   </si>
   <si>
-    <t>Unidad de Pruebas Funcional</t>
-  </si>
-  <si>
     <t>Creacion de Componentes de Acceso a Datos</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>FEAT</t>
+  </si>
+  <si>
+    <t>Pruebas Funcionales</t>
   </si>
 </sst>
 </file>
@@ -372,6 +372,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,24 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,146 +709,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="25"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="Z3" s="25"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="Z4" s="25"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="Z5" s="25"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="Z6" s="25"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -857,30 +857,30 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="Z7" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -888,7 +888,7 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="E8" s="6">
@@ -945,7 +945,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="6">
         <v>8</v>
       </c>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -1016,7 +1016,7 @@
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="6">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -1079,7 +1079,7 @@
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="6">
         <v>7</v>
       </c>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
         <v>0.3</v>
@@ -1128,16 +1128,16 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8">
         <f t="shared" si="0"/>
-        <v>15.8</v>
+        <v>17.8</v>
       </c>
       <c r="V11" s="4">
         <f>SUM(U8:U11)</f>
-        <v>95.3</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
@@ -1145,7 +1145,7 @@
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="23">
         <v>2</v>
       </c>
       <c r="E12" s="10">
@@ -1202,7 +1202,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1210,7 +1210,7 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="10">
         <v>5</v>
       </c>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -1273,7 +1273,7 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="10">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -1336,7 +1336,7 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="10">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="20">
         <v>3</v>
       </c>
       <c r="E16" s="6">
@@ -1459,7 +1459,7 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -1467,7 +1467,7 @@
       <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -1530,7 +1530,7 @@
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="6">
         <v>2</v>
       </c>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -1593,7 +1593,7 @@
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="6">
         <v>3</v>
       </c>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -1719,15 +1719,25 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U21">
         <f>SUM(V11,V15,V19,V20)</f>
-        <v>302.8</v>
+        <v>304.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="Z2:Z7"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:S1"/>
@@ -1740,16 +1750,6 @@
     <mergeCell ref="M2:M7"/>
     <mergeCell ref="N2:N7"/>
     <mergeCell ref="P2:P7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
